--- a/Rabbit/Position_Related_Plots/Rabbit_Vitreous_Humor_Results_Anterior_Vitreous.xlsx
+++ b/Rabbit/Position_Related_Plots/Rabbit_Vitreous_Humor_Results_Anterior_Vitreous.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubuffalo-my.sharepoint.com/personal/echacinr_buffalo_edu/Documents/Desktop/Github Jabias project/Rabbit/Position_Related_Plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="179" documentId="13_ncr:1_{AAA157FD-7270-42C0-8DC4-393A105BA25C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB85360E-C8FF-408E-ACB6-4BF21E189E42}"/>
+  <xr:revisionPtr revIDLastSave="229" documentId="13_ncr:1_{AAA157FD-7270-42C0-8DC4-393A105BA25C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB208F26-BD6E-40B1-A9AD-6F88DC3534FA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{26FFA8E2-5374-4B2B-9A88-9D55D5004369}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" activeTab="1" xr2:uid="{26FFA8E2-5374-4B2B-9A88-9D55D5004369}"/>
   </bookViews>
   <sheets>
     <sheet name="Vitreous concentrations" sheetId="2" r:id="rId1"/>
-    <sheet name="half-lives" sheetId="3" r:id="rId2"/>
+    <sheet name="Half-lives" sheetId="3" r:id="rId2"/>
+    <sheet name="Duration of action" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="20">
   <si>
     <t>Experimental data</t>
   </si>
@@ -95,6 +96,9 @@
   <si>
     <t>N/A</t>
   </si>
+  <si>
+    <t>half-life(d)</t>
+  </si>
 </sst>
 </file>
 
@@ -109,7 +113,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -128,6 +132,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -141,7 +151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -149,6 +159,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -471,46 +482,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{596589CB-4D4B-4B0D-B9B7-0073155E1CCB}">
   <dimension ref="A1:N95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="O77" sqref="O77"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="6"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="6"/>
       <c r="C3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="G3" s="5" t="s">
+      <c r="E3" s="6"/>
+      <c r="G3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="J3" s="5" t="s">
+      <c r="H3" s="6"/>
+      <c r="J3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="5"/>
-      <c r="M3" s="5" t="s">
+      <c r="K3" s="6"/>
+      <c r="M3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="5"/>
+      <c r="N3" s="6"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -775,10 +794,10 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="5"/>
+      <c r="B12" s="6"/>
       <c r="C12" t="s">
         <v>17</v>
       </c>
@@ -1096,10 +1115,10 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="5"/>
+      <c r="B22" s="6"/>
       <c r="C22" t="s">
         <v>17</v>
       </c>
@@ -1321,10 +1340,10 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="5"/>
+      <c r="B29" s="6"/>
       <c r="C29" t="s">
         <v>17</v>
       </c>
@@ -1616,10 +1635,10 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B38" s="5"/>
+      <c r="B38" s="6"/>
       <c r="C38" t="s">
         <v>17</v>
       </c>
@@ -2956,16 +2975,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A12:B12"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="A38:B38"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2975,17 +2994,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02DD368D-0B3B-4024-960C-A6EC5ACA0293}">
   <dimension ref="A1:R95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C2" s="4" t="s">
@@ -2993,32 +3022,32 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="6"/>
+      <c r="B3" s="7"/>
       <c r="C3" s="4">
         <v>4.32</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="6"/>
       <c r="F3" s="2"/>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="5"/>
+      <c r="I3" s="6"/>
       <c r="J3" s="2"/>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="5"/>
+      <c r="M3" s="6"/>
       <c r="N3" s="2"/>
-      <c r="P3" s="5" t="s">
+      <c r="P3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="5"/>
+      <c r="Q3" s="6"/>
       <c r="R3" s="2"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -3034,25 +3063,36 @@
       <c r="E4" t="s">
         <v>6</v>
       </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
       <c r="H4" t="s">
         <v>5</v>
       </c>
       <c r="I4" t="s">
         <v>6</v>
       </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
       <c r="L4" t="s">
         <v>5</v>
       </c>
       <c r="M4" t="s">
         <v>6</v>
       </c>
+      <c r="N4" t="s">
+        <v>19</v>
+      </c>
       <c r="P4" t="s">
         <v>5</v>
       </c>
       <c r="Q4" t="s">
         <v>6</v>
       </c>
-      <c r="R4" s="1"/>
+      <c r="R4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -3267,10 +3307,10 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="6"/>
+      <c r="B12" s="7"/>
       <c r="C12" s="4">
         <v>6.61</v>
       </c>
@@ -3570,10 +3610,10 @@
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="6"/>
+      <c r="B22" s="7"/>
       <c r="C22" s="4">
         <v>6</v>
       </c>
@@ -3791,10 +3831,10 @@
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="6"/>
+      <c r="B29" s="7"/>
       <c r="C29" s="4">
         <v>3.91</v>
       </c>
@@ -4068,10 +4108,10 @@
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B38" s="6"/>
+      <c r="B38" s="7"/>
       <c r="C38" s="4">
         <v>7</v>
       </c>
@@ -5218,16 +5258,2497 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D3:E3"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A38:B38"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25C18C22-F1E5-4993-8C5F-2B9F2205DE97}">
+  <dimension ref="A1:N85"/>
+  <sheetViews>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39:E39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="G3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="J3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="6"/>
+      <c r="M3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="6"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.92903225806451795</v>
+      </c>
+      <c r="B5">
+        <v>414.93257202146998</v>
+      </c>
+      <c r="C5">
+        <v>80.180000000000007</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>859.63715448109849</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>859.65759436805615</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>859.63713384459993</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>859.65721433659326</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2.9419354838709699</v>
+      </c>
+      <c r="B6">
+        <v>328.74104593189298</v>
+      </c>
+      <c r="C6">
+        <v>44.86</v>
+      </c>
+      <c r="D6">
+        <v>0.5</v>
+      </c>
+      <c r="E6">
+        <v>692.04775493924114</v>
+      </c>
+      <c r="G6">
+        <v>0.5</v>
+      </c>
+      <c r="H6">
+        <v>323.54542843911111</v>
+      </c>
+      <c r="J6">
+        <v>0.5</v>
+      </c>
+      <c r="K6">
+        <v>730.28342239900735</v>
+      </c>
+      <c r="M6">
+        <v>0.5</v>
+      </c>
+      <c r="N6">
+        <v>333.59884265866287</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7.8967741935483797</v>
+      </c>
+      <c r="B7">
+        <v>129.52677443553199</v>
+      </c>
+      <c r="C7">
+        <v>25.43</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>559.2748364042244</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>127.01399666750575</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>621.48889036019909</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>132.37319950313812</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>14.967741935483801</v>
+      </c>
+      <c r="B8">
+        <v>48.461098954332002</v>
+      </c>
+      <c r="C8">
+        <v>4.91</v>
+      </c>
+      <c r="D8">
+        <v>1.5</v>
+      </c>
+      <c r="E8">
+        <v>464.52537346917205</v>
+      </c>
+      <c r="G8">
+        <v>1.5</v>
+      </c>
+      <c r="H8">
+        <v>50.09312646467734</v>
+      </c>
+      <c r="J8">
+        <v>1.5</v>
+      </c>
+      <c r="K8">
+        <v>545.0361183701915</v>
+      </c>
+      <c r="M8">
+        <v>1.5</v>
+      </c>
+      <c r="N8">
+        <v>53.035821397794784</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>29.109677419354799</v>
+      </c>
+      <c r="B9">
+        <v>4.6017322765137996</v>
+      </c>
+      <c r="C9">
+        <v>0.52</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>390.61743701638079</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>19.796562029546386</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>484.50555927630035</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9">
+        <v>21.384399544084385</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>2.5</v>
+      </c>
+      <c r="E10">
+        <v>330.40627640994381</v>
+      </c>
+      <c r="G10">
+        <v>2.5</v>
+      </c>
+      <c r="H10">
+        <v>7.8384072114464001</v>
+      </c>
+      <c r="J10">
+        <v>2.5</v>
+      </c>
+      <c r="K10">
+        <v>433.55057641279808</v>
+      </c>
+      <c r="M10">
+        <v>2.5</v>
+      </c>
+      <c r="N10">
+        <v>8.6419804403913467</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>280.26349601739361</v>
+      </c>
+      <c r="G11" s="5">
+        <v>3</v>
+      </c>
+      <c r="H11" s="5">
+        <v>3.1062895320072483</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="K11">
+        <v>389.07657609154961</v>
+      </c>
+      <c r="M11" s="5">
+        <v>3</v>
+      </c>
+      <c r="N11" s="5">
+        <v>3.493493664909439</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12">
+        <v>3.5</v>
+      </c>
+      <c r="E12">
+        <v>237.98817362971803</v>
+      </c>
+      <c r="G12">
+        <v>3.5</v>
+      </c>
+      <c r="H12">
+        <v>1.2304993456762778</v>
+      </c>
+      <c r="J12">
+        <v>3.5</v>
+      </c>
+      <c r="K12">
+        <v>349.58106559101117</v>
+      </c>
+      <c r="M12">
+        <v>3.5</v>
+      </c>
+      <c r="N12">
+        <v>1.4127510752275045</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>202.11710956364311</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <v>0.48764740150046593</v>
+      </c>
+      <c r="J13">
+        <v>4</v>
+      </c>
+      <c r="K13">
+        <v>314.23267244957322</v>
+      </c>
+      <c r="M13">
+        <v>4</v>
+      </c>
+      <c r="N13">
+        <v>0.5711412288493587</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0.959595959595962</v>
+      </c>
+      <c r="B14">
+        <v>517.94746792312196</v>
+      </c>
+      <c r="C14">
+        <v>160.13</v>
+      </c>
+      <c r="D14">
+        <v>4.5</v>
+      </c>
+      <c r="E14">
+        <v>171.63828975918693</v>
+      </c>
+      <c r="G14">
+        <v>4.5</v>
+      </c>
+      <c r="H14">
+        <v>0.19326414303748105</v>
+      </c>
+      <c r="J14">
+        <v>4.5</v>
+      </c>
+      <c r="K14">
+        <v>282.55278542120919</v>
+      </c>
+      <c r="M14">
+        <v>4.5</v>
+      </c>
+      <c r="N14">
+        <v>0.23105526288954206</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2.9797979797979801</v>
+      </c>
+      <c r="B15">
+        <v>89.615050194660597</v>
+      </c>
+      <c r="C15">
+        <v>13.51</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>145.74114269082543</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <v>7.6653453663853469E-2</v>
+      </c>
+      <c r="J15">
+        <v>5</v>
+      </c>
+      <c r="K15">
+        <v>254.08019224826779</v>
+      </c>
+      <c r="M15">
+        <v>5</v>
+      </c>
+      <c r="N15">
+        <v>9.3469336866793221E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>7.9292929292929299</v>
+      </c>
+      <c r="B16">
+        <v>57.796928841533195</v>
+      </c>
+      <c r="C16">
+        <v>11.11</v>
+      </c>
+      <c r="D16">
+        <v>5.5</v>
+      </c>
+      <c r="E16">
+        <v>123.77405243961007</v>
+      </c>
+      <c r="G16">
+        <v>5.5</v>
+      </c>
+      <c r="H16">
+        <v>3.0400469123101327E-2</v>
+      </c>
+      <c r="J16">
+        <v>5.5</v>
+      </c>
+      <c r="K16">
+        <v>228.48863787391639</v>
+      </c>
+      <c r="M16">
+        <v>5.5</v>
+      </c>
+      <c r="N16">
+        <v>3.7835326644018022E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>14.8989898989899</v>
+      </c>
+      <c r="B17">
+        <v>26.826957952797198</v>
+      </c>
+      <c r="C17">
+        <v>9.11</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="E17">
+        <v>105.13033368202551</v>
+      </c>
+      <c r="G17">
+        <v>6</v>
+      </c>
+      <c r="H17">
+        <v>1.2057451897809495E-2</v>
+      </c>
+      <c r="J17">
+        <v>6</v>
+      </c>
+      <c r="K17">
+        <v>205.48064232259304</v>
+      </c>
+      <c r="M17">
+        <v>6</v>
+      </c>
+      <c r="N17">
+        <v>1.5308118206224975E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>28.939393939393899</v>
+      </c>
+      <c r="B18">
+        <v>5.9948425031894104</v>
+      </c>
+      <c r="C18">
+        <v>1.56</v>
+      </c>
+      <c r="D18">
+        <v>6.5</v>
+      </c>
+      <c r="E18">
+        <v>89.304345131599447</v>
+      </c>
+      <c r="G18">
+        <v>6.5</v>
+      </c>
+      <c r="H18">
+        <v>4.7823206578271127E-3</v>
+      </c>
+      <c r="J18">
+        <v>6.5</v>
+      </c>
+      <c r="K18">
+        <v>184.79451704378207</v>
+      </c>
+      <c r="M18">
+        <v>6.5</v>
+      </c>
+      <c r="N18">
+        <v>6.196317772542711E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <v>75.846327985801523</v>
+      </c>
+      <c r="G19">
+        <v>7</v>
+      </c>
+      <c r="H19">
+        <v>1.8966463997997505E-3</v>
+      </c>
+      <c r="J19">
+        <v>7</v>
+      </c>
+      <c r="K19">
+        <v>166.1007360067577</v>
+      </c>
+      <c r="M19">
+        <v>7</v>
+      </c>
+      <c r="N19">
+        <v>2.5071932290951704E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>7.5</v>
+      </c>
+      <c r="E20">
+        <v>64.416480729620105</v>
+      </c>
+      <c r="G20">
+        <v>7.5</v>
+      </c>
+      <c r="H20">
+        <v>7.5231372569612895E-4</v>
+      </c>
+      <c r="J20">
+        <v>7.5</v>
+      </c>
+      <c r="K20">
+        <v>149.28745742505555</v>
+      </c>
+      <c r="M20">
+        <v>7.5</v>
+      </c>
+      <c r="N20">
+        <v>1.0147817457620526E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>8</v>
+      </c>
+      <c r="E21">
+        <v>54.71157655089452</v>
+      </c>
+      <c r="G21">
+        <v>8</v>
+      </c>
+      <c r="H21">
+        <v>2.983469004408026E-4</v>
+      </c>
+      <c r="J21">
+        <v>8</v>
+      </c>
+      <c r="K21">
+        <v>134.14648233066637</v>
+      </c>
+      <c r="M21">
+        <v>8</v>
+      </c>
+      <c r="N21">
+        <v>4.1064068276482828E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22">
+        <v>8.5</v>
+      </c>
+      <c r="E22">
+        <v>46.472250026868956</v>
+      </c>
+      <c r="G22">
+        <v>8.5</v>
+      </c>
+      <c r="H22">
+        <v>1.1834784076672592E-4</v>
+      </c>
+      <c r="J22">
+        <v>8.5</v>
+      </c>
+      <c r="K22">
+        <v>120.54675939300576</v>
+      </c>
+      <c r="M22">
+        <v>8.5</v>
+      </c>
+      <c r="N22">
+        <v>1.6619337943366634E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <v>9</v>
+      </c>
+      <c r="E23">
+        <v>39.475230227137189</v>
+      </c>
+      <c r="G23">
+        <v>9</v>
+      </c>
+      <c r="H23">
+        <v>4.6931078654701982E-5</v>
+      </c>
+      <c r="J23">
+        <v>9</v>
+      </c>
+      <c r="K23">
+        <v>108.36247473399595</v>
+      </c>
+      <c r="M23">
+        <v>9</v>
+      </c>
+      <c r="N23">
+        <v>6.725814816248941E-5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>7</v>
+      </c>
+      <c r="B24">
+        <v>59.2</v>
+      </c>
+      <c r="C24">
+        <v>12.24</v>
+      </c>
+      <c r="D24">
+        <v>9.5</v>
+      </c>
+      <c r="E24">
+        <v>33.525886996759219</v>
+      </c>
+      <c r="G24">
+        <v>9.5</v>
+      </c>
+      <c r="H24">
+        <v>1.8617546914391333E-5</v>
+      </c>
+      <c r="J24">
+        <v>9.5</v>
+      </c>
+      <c r="K24">
+        <v>97.347334724219422</v>
+      </c>
+      <c r="M24">
+        <v>9.5</v>
+      </c>
+      <c r="N24">
+        <v>2.7218086859032326E-5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>14</v>
+      </c>
+      <c r="B25">
+        <v>4.7469999999999999</v>
+      </c>
+      <c r="C25">
+        <v>0.66</v>
+      </c>
+      <c r="D25">
+        <v>10</v>
+      </c>
+      <c r="E25">
+        <v>28.473935505830436</v>
+      </c>
+      <c r="G25">
+        <v>10</v>
+      </c>
+      <c r="H25">
+        <v>7.382493343631348E-6</v>
+      </c>
+      <c r="J25">
+        <v>10</v>
+      </c>
+      <c r="K25">
+        <v>87.495726642954722</v>
+      </c>
+      <c r="M25">
+        <v>10</v>
+      </c>
+      <c r="N25">
+        <v>1.1016347090736817E-5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>28</v>
+      </c>
+      <c r="B26">
+        <v>3.5</v>
+      </c>
+      <c r="C26">
+        <v>0.84</v>
+      </c>
+      <c r="D26">
+        <v>10.5</v>
+      </c>
+      <c r="E26">
+        <v>24.184552754688227</v>
+      </c>
+      <c r="G26">
+        <v>10.5</v>
+      </c>
+      <c r="H26">
+        <v>2.9287688300012066E-6</v>
+      </c>
+      <c r="J26">
+        <v>10.5</v>
+      </c>
+      <c r="K26">
+        <v>78.62803976706472</v>
+      </c>
+      <c r="M26">
+        <v>10.5</v>
+      </c>
+      <c r="N26">
+        <v>4.457641250056707E-6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>11</v>
+      </c>
+      <c r="E27">
+        <v>20.543038849756602</v>
+      </c>
+      <c r="G27">
+        <v>11</v>
+      </c>
+      <c r="H27">
+        <v>1.1613117212251279E-6</v>
+      </c>
+      <c r="J27">
+        <v>11</v>
+      </c>
+      <c r="K27">
+        <v>70.65152511417763</v>
+      </c>
+      <c r="M27">
+        <v>11</v>
+      </c>
+      <c r="N27">
+        <v>1.8044346714665745E-6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>11.5</v>
+      </c>
+      <c r="E28">
+        <v>17.448962109301107</v>
+      </c>
+      <c r="G28">
+        <v>11.5</v>
+      </c>
+      <c r="H28">
+        <v>4.6073161370373488E-7</v>
+      </c>
+      <c r="J28">
+        <v>11.5</v>
+      </c>
+      <c r="K28">
+        <v>63.509056086507279</v>
+      </c>
+      <c r="M28">
+        <v>11.5</v>
+      </c>
+      <c r="N28">
+        <v>7.3005763920361791E-7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29">
+        <v>12</v>
+      </c>
+      <c r="E29">
+        <v>14.819293312959049</v>
+      </c>
+      <c r="G29">
+        <v>12</v>
+      </c>
+      <c r="H29">
+        <v>1.8268272245028967E-7</v>
+      </c>
+      <c r="J29">
+        <v>12</v>
+      </c>
+      <c r="K29">
+        <v>57.057676667652174</v>
+      </c>
+      <c r="M29">
+        <v>12</v>
+      </c>
+      <c r="N29">
+        <v>2.9552766550172371E-7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30">
+        <v>12.5</v>
+      </c>
+      <c r="E30">
+        <v>12.586366069656121</v>
+      </c>
+      <c r="G30">
+        <v>12.5</v>
+      </c>
+      <c r="H30">
+        <v>7.2478798226307714E-8</v>
+      </c>
+      <c r="J30">
+        <v>12.5</v>
+      </c>
+      <c r="K30">
+        <v>51.280198789268532</v>
+      </c>
+      <c r="M30">
+        <v>12.5</v>
+      </c>
+      <c r="N30">
+        <v>1.1956790272038023E-7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2.7431372549019502</v>
+      </c>
+      <c r="B31">
+        <v>156</v>
+      </c>
+      <c r="C31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31">
+        <v>13</v>
+      </c>
+      <c r="E31">
+        <v>10.690554229834261</v>
+      </c>
+      <c r="G31">
+        <v>13</v>
+      </c>
+      <c r="H31">
+        <v>2.873748585830413E-8</v>
+      </c>
+      <c r="J31">
+        <v>13</v>
+      </c>
+      <c r="K31">
+        <v>46.089221752500031</v>
+      </c>
+      <c r="M31">
+        <v>13</v>
+      </c>
+      <c r="N31">
+        <v>4.8398938239351045E-8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>6.9617647058823504</v>
+      </c>
+      <c r="B32">
+        <v>87.3333333333333</v>
+      </c>
+      <c r="C32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32">
+        <v>13.5</v>
+      </c>
+      <c r="E32">
+        <v>9.0811345270025878</v>
+      </c>
+      <c r="G32">
+        <v>13.5</v>
+      </c>
+      <c r="H32">
+        <v>1.1400613456345548E-8</v>
+      </c>
+      <c r="J32">
+        <v>13.5</v>
+      </c>
+      <c r="K32">
+        <v>41.409325958890982</v>
+      </c>
+      <c r="M32">
+        <v>13.5</v>
+      </c>
+      <c r="N32">
+        <v>1.9582964535455487E-8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>13.957843137254899</v>
+      </c>
+      <c r="B33">
+        <v>30</v>
+      </c>
+      <c r="C33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33">
+        <v>14</v>
+      </c>
+      <c r="E33">
+        <v>7.7128500308787986</v>
+      </c>
+      <c r="G33">
+        <v>14</v>
+      </c>
+      <c r="H33">
+        <v>4.5206658999233483E-9</v>
+      </c>
+      <c r="J33">
+        <v>14</v>
+      </c>
+      <c r="K33">
+        <v>37.221634132625525</v>
+      </c>
+      <c r="M33">
+        <v>14</v>
+      </c>
+      <c r="N33">
+        <v>7.9263712503720272E-9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>27.9470588235294</v>
+      </c>
+      <c r="B34">
+        <v>19.1404115825896</v>
+      </c>
+      <c r="C34" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34">
+        <v>14.5</v>
+      </c>
+      <c r="E34">
+        <v>6.5505236365943116</v>
+      </c>
+      <c r="G34">
+        <v>14.5</v>
+      </c>
+      <c r="H34">
+        <v>1.7932656573068995E-9</v>
+      </c>
+      <c r="J34">
+        <v>14.5</v>
+      </c>
+      <c r="K34">
+        <v>33.443649276871923</v>
+      </c>
+      <c r="M34">
+        <v>14.5</v>
+      </c>
+      <c r="N34">
+        <v>3.2073739415024363E-9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>41.942156862745001</v>
+      </c>
+      <c r="B35">
+        <v>2.4221453287196901</v>
+      </c>
+      <c r="C35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35">
+        <v>15</v>
+      </c>
+      <c r="E35">
+        <v>5.5635959463136073</v>
+      </c>
+      <c r="G35">
+        <v>15</v>
+      </c>
+      <c r="H35">
+        <v>7.1114493392602473E-10</v>
+      </c>
+      <c r="J35">
+        <v>15</v>
+      </c>
+      <c r="K35">
+        <v>30.054969810592052</v>
+      </c>
+      <c r="M35">
+        <v>15</v>
+      </c>
+      <c r="N35">
+        <v>1.2981194316513809E-9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>15.5</v>
+      </c>
+      <c r="E36">
+        <v>4.7256973864078171</v>
+      </c>
+      <c r="G36">
+        <v>15.5</v>
+      </c>
+      <c r="H36">
+        <v>2.8207603715414927E-10</v>
+      </c>
+      <c r="J36">
+        <v>15.5</v>
+      </c>
+      <c r="K36">
+        <v>27.016718928500051</v>
+      </c>
+      <c r="M36">
+        <v>15.5</v>
+      </c>
+      <c r="N36">
+        <v>5.25326234057843E-10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>16</v>
+      </c>
+      <c r="E37">
+        <v>4.0142633000132459</v>
+      </c>
+      <c r="G37">
+        <v>16</v>
+      </c>
+      <c r="H37">
+        <v>1.1187051195318754E-10</v>
+      </c>
+      <c r="J37">
+        <v>16</v>
+      </c>
+      <c r="K37">
+        <v>24.270599494480095</v>
+      </c>
+      <c r="M37">
+        <v>16</v>
+      </c>
+      <c r="N37">
+        <v>2.1259711544356029E-10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38">
+        <v>16.5</v>
+      </c>
+      <c r="E38">
+        <v>3.4092668112635014</v>
+      </c>
+      <c r="G38">
+        <v>16.5</v>
+      </c>
+      <c r="H38">
+        <v>4.4370320950597267E-11</v>
+      </c>
+      <c r="J38">
+        <v>16.5</v>
+      </c>
+      <c r="K38">
+        <v>21.81506047627893</v>
+      </c>
+      <c r="M38">
+        <v>16.5</v>
+      </c>
+      <c r="N38">
+        <v>8.6043476486841761E-11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="5">
+        <v>17</v>
+      </c>
+      <c r="E39" s="5">
+        <v>2.8955200042228109</v>
+      </c>
+      <c r="G39">
+        <v>17</v>
+      </c>
+      <c r="H39">
+        <v>1.7598459826424875E-11</v>
+      </c>
+      <c r="J39">
+        <v>17</v>
+      </c>
+      <c r="K39">
+        <v>19.602966216400553</v>
+      </c>
+      <c r="M39">
+        <v>17</v>
+      </c>
+      <c r="N39">
+        <v>3.4817966058432463E-11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>1471.7436403597401</v>
+      </c>
+      <c r="C40">
+        <v>79.8</v>
+      </c>
+      <c r="D40">
+        <v>17.5</v>
+      </c>
+      <c r="E40">
+        <v>2.4593157090518254</v>
+      </c>
+      <c r="G40">
+        <v>17.5</v>
+      </c>
+      <c r="H40">
+        <v>6.9794858386778355E-12</v>
+      </c>
+      <c r="J40">
+        <v>17.5</v>
+      </c>
+      <c r="K40">
+        <v>17.615156102133856</v>
+      </c>
+      <c r="M40">
+        <v>17.5</v>
+      </c>
+      <c r="N40">
+        <v>1.4093447482984518E-11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>0.84207459207458746</v>
+      </c>
+      <c r="B41">
+        <v>679.46616012253696</v>
+      </c>
+      <c r="C41">
+        <v>41.36</v>
+      </c>
+      <c r="D41">
+        <v>18</v>
+      </c>
+      <c r="E41">
+        <v>2.0889922930185496</v>
+      </c>
+      <c r="G41">
+        <v>18</v>
+      </c>
+      <c r="H41">
+        <v>2.7684390572714395E-12</v>
+      </c>
+      <c r="J41">
+        <v>18</v>
+      </c>
+      <c r="K41">
+        <v>15.834611910167116</v>
+      </c>
+      <c r="M41">
+        <v>18</v>
+      </c>
+      <c r="N41">
+        <v>5.7023465545450063E-12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>4.9206002331002088</v>
+      </c>
+      <c r="B42">
+        <v>334.56116246598299</v>
+      </c>
+      <c r="C42">
+        <v>37.07</v>
+      </c>
+      <c r="D42">
+        <v>18.5</v>
+      </c>
+      <c r="E42">
+        <v>1.7744066177639619</v>
+      </c>
+      <c r="G42">
+        <v>18.5</v>
+      </c>
+      <c r="H42">
+        <v>1.0978890424902033E-12</v>
+      </c>
+      <c r="J42">
+        <v>18.5</v>
+      </c>
+      <c r="K42">
+        <v>14.225555093813561</v>
+      </c>
+      <c r="M42">
+        <v>18.5</v>
+      </c>
+      <c r="N42">
+        <v>2.3083450549791595E-12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>14.004953379953376</v>
+      </c>
+      <c r="B43">
+        <v>127.31955290816499</v>
+      </c>
+      <c r="C43">
+        <v>18.670000000000002</v>
+      </c>
+      <c r="D43">
+        <v>19</v>
+      </c>
+      <c r="E43">
+        <v>1.5069945627674768</v>
+      </c>
+      <c r="G43">
+        <v>19</v>
+      </c>
+      <c r="H43">
+        <v>4.3550815491614539E-13</v>
+      </c>
+      <c r="J43">
+        <v>19</v>
+      </c>
+      <c r="K43">
+        <v>12.785544327431511</v>
+      </c>
+      <c r="M43">
+        <v>19</v>
+      </c>
+      <c r="N43">
+        <v>9.3391831857769618E-13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>30.129662004661999</v>
+      </c>
+      <c r="B44">
+        <v>32.3958597771421</v>
+      </c>
+      <c r="C44">
+        <v>5.58</v>
+      </c>
+      <c r="D44">
+        <v>19.5</v>
+      </c>
+      <c r="E44">
+        <v>1.2799255226723885</v>
+      </c>
+      <c r="G44">
+        <v>19.5</v>
+      </c>
+      <c r="H44">
+        <v>1.7270197884536058E-13</v>
+      </c>
+      <c r="J44">
+        <v>19.5</v>
+      </c>
+      <c r="K44">
+        <v>11.490512597583724</v>
+      </c>
+      <c r="M44">
+        <v>19.5</v>
+      </c>
+      <c r="N44">
+        <v>3.7804045980564685E-13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <v>20</v>
+      </c>
+      <c r="E45">
+        <v>1.0871371829116896</v>
+      </c>
+      <c r="G45">
+        <v>20</v>
+      </c>
+      <c r="H45">
+        <v>6.7360625737045464E-14</v>
+      </c>
+      <c r="J45">
+        <v>20</v>
+      </c>
+      <c r="K45">
+        <v>10.324311529285504</v>
+      </c>
+      <c r="M45">
+        <v>20</v>
+      </c>
+      <c r="N45">
+        <v>1.5269435534950924E-13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <v>20.5</v>
+      </c>
+      <c r="E46">
+        <v>0.92347436349457956</v>
+      </c>
+      <c r="G46">
+        <v>20.5</v>
+      </c>
+      <c r="H46">
+        <v>2.5902188816411515E-14</v>
+      </c>
+      <c r="J46">
+        <v>20.5</v>
+      </c>
+      <c r="K46">
+        <v>9.2804114000127722</v>
+      </c>
+      <c r="M46">
+        <v>20.5</v>
+      </c>
+      <c r="N46">
+        <v>6.0340114478275957E-14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <v>21</v>
+      </c>
+      <c r="E47">
+        <v>0.78437033398226275</v>
+      </c>
+      <c r="G47">
+        <v>21</v>
+      </c>
+      <c r="H47">
+        <v>9.9848897108762893E-15</v>
+      </c>
+      <c r="J47">
+        <v>21</v>
+      </c>
+      <c r="K47">
+        <v>8.3380647112880641</v>
+      </c>
+      <c r="M47">
+        <v>21</v>
+      </c>
+      <c r="N47">
+        <v>2.3938552700022421E-14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <v>21.5</v>
+      </c>
+      <c r="E48">
+        <v>0.66618297721138509</v>
+      </c>
+      <c r="G48">
+        <v>21.5</v>
+      </c>
+      <c r="H48">
+        <v>3.701191902410636E-15</v>
+      </c>
+      <c r="J48">
+        <v>21.5</v>
+      </c>
+      <c r="K48">
+        <v>7.493499366915624</v>
+      </c>
+      <c r="M48">
+        <v>21.5</v>
+      </c>
+      <c r="N48">
+        <v>9.4566501009388679E-15</v>
+      </c>
+    </row>
+    <row r="49" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <v>22</v>
+      </c>
+      <c r="E49">
+        <v>0.56582798948788937</v>
+      </c>
+      <c r="G49">
+        <v>22</v>
+      </c>
+      <c r="H49">
+        <v>1.2377742538178026E-15</v>
+      </c>
+      <c r="J49">
+        <v>22</v>
+      </c>
+      <c r="K49">
+        <v>6.7354656221005209</v>
+      </c>
+      <c r="M49">
+        <v>22</v>
+      </c>
+      <c r="N49">
+        <v>3.4085026640288124E-15</v>
+      </c>
+    </row>
+    <row r="50" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <v>22.5</v>
+      </c>
+      <c r="E50">
+        <v>0.48062340872026171</v>
+      </c>
+      <c r="G50">
+        <v>22.5</v>
+      </c>
+      <c r="H50">
+        <v>3.6612551205730212E-16</v>
+      </c>
+      <c r="J50">
+        <v>22.5</v>
+      </c>
+      <c r="K50">
+        <v>6.0511950159776475</v>
+      </c>
+      <c r="M50">
+        <v>22.5</v>
+      </c>
+      <c r="N50">
+        <v>1.1944609228147101E-15</v>
+      </c>
+    </row>
+    <row r="51" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <v>23</v>
+      </c>
+      <c r="E51">
+        <v>0.4082886497444479</v>
+      </c>
+      <c r="G51">
+        <v>23</v>
+      </c>
+      <c r="H51">
+        <v>6.9441865359269194E-17</v>
+      </c>
+      <c r="J51">
+        <v>23</v>
+      </c>
+      <c r="K51">
+        <v>5.4391148953602473</v>
+      </c>
+      <c r="M51">
+        <v>23</v>
+      </c>
+      <c r="N51">
+        <v>4.5886368885224214E-16</v>
+      </c>
+    </row>
+    <row r="52" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D52">
+        <v>23.5</v>
+      </c>
+      <c r="E52">
+        <v>0.34676560772076753</v>
+      </c>
+      <c r="G52">
+        <v>23.5</v>
+      </c>
+      <c r="H52">
+        <v>-2.8846509162087091E-17</v>
+      </c>
+      <c r="J52">
+        <v>23.5</v>
+      </c>
+      <c r="K52">
+        <v>4.8873106808708533</v>
+      </c>
+      <c r="M52">
+        <v>23.5</v>
+      </c>
+      <c r="N52">
+        <v>1.5523294312517116E-16</v>
+      </c>
+    </row>
+    <row r="53" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D53">
+        <v>24</v>
+      </c>
+      <c r="E53">
+        <v>0.29451930987746539</v>
+      </c>
+      <c r="G53">
+        <v>24</v>
+      </c>
+      <c r="H53">
+        <v>-2.8811680448391687E-17</v>
+      </c>
+      <c r="J53">
+        <v>24</v>
+      </c>
+      <c r="K53">
+        <v>4.391916664147038</v>
+      </c>
+      <c r="M53">
+        <v>24</v>
+      </c>
+      <c r="N53">
+        <v>6.8265818105978147E-17</v>
+      </c>
+    </row>
+    <row r="54" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D54">
+        <v>24.5</v>
+      </c>
+      <c r="E54">
+        <v>0.25015668650231832</v>
+      </c>
+      <c r="G54">
+        <v>24.5</v>
+      </c>
+      <c r="H54">
+        <v>-2.8776851734696283E-17</v>
+      </c>
+      <c r="J54">
+        <v>24.5</v>
+      </c>
+      <c r="K54">
+        <v>3.9480362081424256</v>
+      </c>
+      <c r="M54">
+        <v>24.5</v>
+      </c>
+      <c r="N54">
+        <v>3.4651293524571374E-17</v>
+      </c>
+    </row>
+    <row r="55" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D55">
+        <v>25</v>
+      </c>
+      <c r="E55">
+        <v>0.21249247164554952</v>
+      </c>
+      <c r="G55">
+        <v>25</v>
+      </c>
+      <c r="H55">
+        <v>-2.8193994989572957E-17</v>
+      </c>
+      <c r="J55">
+        <v>25</v>
+      </c>
+      <c r="K55">
+        <v>3.5467322942741273</v>
+      </c>
+      <c r="M55">
+        <v>25</v>
+      </c>
+      <c r="N55">
+        <v>1.0367689431645041E-18</v>
+      </c>
+    </row>
+    <row r="56" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D56">
+        <v>25.5</v>
+      </c>
+      <c r="E56">
+        <v>0.18050227188557216</v>
+      </c>
+      <c r="G56">
+        <v>25.5</v>
+      </c>
+      <c r="H56">
+        <v>-2.4870155470413009E-17</v>
+      </c>
+      <c r="J56">
+        <v>25.5</v>
+      </c>
+      <c r="K56">
+        <v>3.1878091277826255</v>
+      </c>
+      <c r="M56">
+        <v>25.5</v>
+      </c>
+      <c r="N56">
+        <v>-5.9162152430888043E-18</v>
+      </c>
+    </row>
+    <row r="57" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D57">
+        <v>26</v>
+      </c>
+      <c r="E57">
+        <v>0.15330377766561235</v>
+      </c>
+      <c r="G57">
+        <v>26</v>
+      </c>
+      <c r="H57">
+        <v>-2.1546315951253054E-17</v>
+      </c>
+      <c r="J57" s="5">
+        <v>26</v>
+      </c>
+      <c r="K57" s="5">
+        <v>2.8647431921817912</v>
+      </c>
+      <c r="M57">
+        <v>26</v>
+      </c>
+      <c r="N57">
+        <v>-1.2859839214484605E-17</v>
+      </c>
+    </row>
+    <row r="58" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D58">
+        <v>26.5</v>
+      </c>
+      <c r="E58">
+        <v>0.13020733187976</v>
+      </c>
+      <c r="G58">
+        <v>26.5</v>
+      </c>
+      <c r="H58">
+        <v>-1.82224764320931E-17</v>
+      </c>
+      <c r="J58">
+        <v>26.5</v>
+      </c>
+      <c r="K58">
+        <v>2.5741278487871737</v>
+      </c>
+      <c r="M58">
+        <v>26.5</v>
+      </c>
+      <c r="N58">
+        <v>-1.6728827163548153E-17</v>
+      </c>
+    </row>
+    <row r="59" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D59">
+        <v>27</v>
+      </c>
+      <c r="E59">
+        <v>0.11059671328467727</v>
+      </c>
+      <c r="G59">
+        <v>27</v>
+      </c>
+      <c r="H59">
+        <v>-1.4898636912932954E-17</v>
+      </c>
+      <c r="J59">
+        <v>27</v>
+      </c>
+      <c r="K59">
+        <v>2.3139042943234149</v>
+      </c>
+      <c r="M59">
+        <v>27</v>
+      </c>
+      <c r="N59">
+        <v>-1.5959816997585888E-17</v>
+      </c>
+    </row>
+    <row r="60" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D60">
+        <v>27.5</v>
+      </c>
+      <c r="E60">
+        <v>9.3947665140501443E-2</v>
+      </c>
+      <c r="G60">
+        <v>27.5</v>
+      </c>
+      <c r="H60">
+        <v>-1.1574797393772958E-17</v>
+      </c>
+      <c r="J60">
+        <v>27.5</v>
+      </c>
+      <c r="K60">
+        <v>2.07886658520657</v>
+      </c>
+      <c r="M60">
+        <v>27.5</v>
+      </c>
+      <c r="N60">
+        <v>-1.5190806831623629E-17</v>
+      </c>
+    </row>
+    <row r="61" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D61">
+        <v>28</v>
+      </c>
+      <c r="E61">
+        <v>7.9799111357002406E-2</v>
+      </c>
+      <c r="G61">
+        <v>28</v>
+      </c>
+      <c r="H61">
+        <v>-8.8124094715003847E-18</v>
+      </c>
+      <c r="J61">
+        <v>28</v>
+      </c>
+      <c r="K61">
+        <v>1.8683733569890626</v>
+      </c>
+      <c r="M61">
+        <v>28</v>
+      </c>
+      <c r="N61">
+        <v>-1.4421796665661379E-17</v>
+      </c>
+    </row>
+    <row r="62" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D62">
+        <v>28.5</v>
+      </c>
+      <c r="E62">
+        <v>6.777518880949987E-2</v>
+      </c>
+      <c r="G62">
+        <v>28.5</v>
+      </c>
+      <c r="H62">
+        <v>-7.2255181025767478E-18</v>
+      </c>
+      <c r="J62">
+        <v>28.5</v>
+      </c>
+      <c r="K62">
+        <v>1.679258625717158</v>
+      </c>
+      <c r="M62">
+        <v>28.5</v>
+      </c>
+      <c r="N62">
+        <v>-1.3652786499699208E-17</v>
+      </c>
+    </row>
+    <row r="63" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D63">
+        <v>29</v>
+      </c>
+      <c r="E63">
+        <v>5.7565092568529312E-2</v>
+      </c>
+      <c r="G63">
+        <v>29</v>
+      </c>
+      <c r="H63">
+        <v>-5.6386267336531101E-18</v>
+      </c>
+      <c r="J63">
+        <v>29</v>
+      </c>
+      <c r="K63">
+        <v>1.5087532684186895</v>
+      </c>
+      <c r="M63">
+        <v>29</v>
+      </c>
+      <c r="N63">
+        <v>-1.2752026186034255E-17</v>
+      </c>
+    </row>
+    <row r="64" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D64">
+        <v>29.5</v>
+      </c>
+      <c r="E64">
+        <v>4.8896250394193597E-2</v>
+      </c>
+      <c r="G64">
+        <v>29.5</v>
+      </c>
+      <c r="H64">
+        <v>-4.0517353647294879E-18</v>
+      </c>
+      <c r="J64">
+        <v>29.5</v>
+      </c>
+      <c r="K64">
+        <v>1.3561837773763796</v>
+      </c>
+      <c r="M64">
+        <v>29.5</v>
+      </c>
+      <c r="N64">
+        <v>-1.1313042336511757E-17</v>
+      </c>
+    </row>
+    <row r="65" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D65">
+        <v>30</v>
+      </c>
+      <c r="E65">
+        <v>4.1536784925238983E-2</v>
+      </c>
+      <c r="G65">
+        <v>30</v>
+      </c>
+      <c r="H65">
+        <v>-2.4648439958058506E-18</v>
+      </c>
+      <c r="J65">
+        <v>30</v>
+      </c>
+      <c r="K65">
+        <v>1.218545671224875</v>
+      </c>
+      <c r="M65">
+        <v>30</v>
+      </c>
+      <c r="N65">
+        <v>-9.874058486989277E-18</v>
+      </c>
+    </row>
+    <row r="66" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D66">
+        <v>30.5</v>
+      </c>
+      <c r="E66">
+        <v>3.5278802887228768E-2</v>
+      </c>
+      <c r="G66">
+        <v>30.5</v>
+      </c>
+      <c r="H66">
+        <v>-8.7795262688223434E-19</v>
+      </c>
+      <c r="J66">
+        <v>30.5</v>
+      </c>
+      <c r="K66">
+        <v>1.0950850213345662</v>
+      </c>
+      <c r="M66">
+        <v>30.5</v>
+      </c>
+      <c r="N66">
+        <v>-8.4350746374667519E-18</v>
+      </c>
+    </row>
+    <row r="67" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D67">
+        <v>31</v>
+      </c>
+      <c r="E67">
+        <v>2.9963324116940724E-2</v>
+      </c>
+      <c r="G67">
+        <v>31</v>
+      </c>
+      <c r="H67">
+        <v>7.0893874204138955E-19</v>
+      </c>
+      <c r="J67">
+        <v>31</v>
+      </c>
+      <c r="K67">
+        <v>0.98439758787907761</v>
+      </c>
+      <c r="M67">
+        <v>31</v>
+      </c>
+      <c r="N67">
+        <v>-6.99609078794427E-18</v>
+      </c>
+    </row>
+    <row r="68" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D68">
+        <v>31.5</v>
+      </c>
+      <c r="E68">
+        <v>2.5449860719565353E-2</v>
+      </c>
+      <c r="G68">
+        <v>31.5</v>
+      </c>
+      <c r="H68">
+        <v>1.828485859245605E-18</v>
+      </c>
+      <c r="J68">
+        <v>31.5</v>
+      </c>
+      <c r="K68">
+        <v>0.88434532796277221</v>
+      </c>
+      <c r="M68">
+        <v>31.5</v>
+      </c>
+      <c r="N68">
+        <v>-5.5571069384218181E-18</v>
+      </c>
+    </row>
+    <row r="69" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D69">
+        <v>32</v>
+      </c>
+      <c r="E69">
+        <v>2.1617848734373103E-2</v>
+      </c>
+      <c r="G69">
+        <v>32</v>
+      </c>
+      <c r="H69">
+        <v>1.9695665152819376E-18</v>
+      </c>
+      <c r="J69">
+        <v>32</v>
+      </c>
+      <c r="K69">
+        <v>0.79488108966240278</v>
+      </c>
+      <c r="M69">
+        <v>32</v>
+      </c>
+      <c r="N69">
+        <v>-4.1181230888993362E-18</v>
+      </c>
+    </row>
+    <row r="70" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D70">
+        <v>32.5</v>
+      </c>
+      <c r="E70">
+        <v>1.8363726626945284E-2</v>
+      </c>
+      <c r="G70">
+        <v>32.5</v>
+      </c>
+      <c r="H70">
+        <v>2.1106471713182559E-18</v>
+      </c>
+      <c r="J70">
+        <v>32.5</v>
+      </c>
+      <c r="K70">
+        <v>0.71428892325295501</v>
+      </c>
+      <c r="M70">
+        <v>32.5</v>
+      </c>
+      <c r="N70">
+        <v>-2.848088559517903E-18</v>
+      </c>
+    </row>
+    <row r="71" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D71">
+        <v>33</v>
+      </c>
+      <c r="E71">
+        <v>1.559661337521224E-2</v>
+      </c>
+      <c r="G71">
+        <v>33</v>
+      </c>
+      <c r="H71">
+        <v>2.251727827354588E-18</v>
+      </c>
+      <c r="J71">
+        <v>33</v>
+      </c>
+      <c r="K71">
+        <v>0.64186358661834064</v>
+      </c>
+      <c r="M71">
+        <v>33</v>
+      </c>
+      <c r="N71">
+        <v>-2.2682430132427865E-18</v>
+      </c>
+    </row>
+    <row r="72" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D72">
+        <v>33.5</v>
+      </c>
+      <c r="E72">
+        <v>1.324679846076258E-2</v>
+      </c>
+      <c r="G72">
+        <v>33.5</v>
+      </c>
+      <c r="H72">
+        <v>2.3928084833909059E-18</v>
+      </c>
+      <c r="J72">
+        <v>33.5</v>
+      </c>
+      <c r="K72">
+        <v>0.57699026172216095</v>
+      </c>
+      <c r="M72">
+        <v>33.5</v>
+      </c>
+      <c r="N72">
+        <v>-1.6883974669676561E-18</v>
+      </c>
+    </row>
+    <row r="73" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D73">
+        <v>34</v>
+      </c>
+      <c r="E73">
+        <v>1.1251602404310109E-2</v>
+      </c>
+      <c r="G73">
+        <v>34</v>
+      </c>
+      <c r="H73">
+        <v>2.5338891394272384E-18</v>
+      </c>
+      <c r="J73">
+        <v>34</v>
+      </c>
+      <c r="K73">
+        <v>0.51836580666503951</v>
+      </c>
+      <c r="M73">
+        <v>34</v>
+      </c>
+      <c r="N73">
+        <v>-1.1085519206925458E-18</v>
+      </c>
+    </row>
+    <row r="74" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D74">
+        <v>34.5</v>
+      </c>
+      <c r="E74">
+        <v>9.5576985524990898E-3</v>
+      </c>
+      <c r="G74">
+        <v>34.5</v>
+      </c>
+      <c r="H74">
+        <v>2.6749697954635563E-18</v>
+      </c>
+      <c r="J74">
+        <v>34.5</v>
+      </c>
+      <c r="K74">
+        <v>0.46589795233168152</v>
+      </c>
+      <c r="M74">
+        <v>34.5</v>
+      </c>
+      <c r="N74">
+        <v>-5.2870637441742699E-19</v>
+      </c>
+    </row>
+    <row r="75" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D75">
+        <v>35</v>
+      </c>
+      <c r="E75">
+        <v>8.1185060938588505E-3</v>
+      </c>
+      <c r="G75">
+        <v>35</v>
+      </c>
+      <c r="H75">
+        <v>2.6910159611355115E-18</v>
+      </c>
+      <c r="J75">
+        <v>35</v>
+      </c>
+      <c r="K75">
+        <v>0.41871417683087958</v>
+      </c>
+      <c r="M75">
+        <v>35</v>
+      </c>
+      <c r="N75">
+        <v>5.1139171857698856E-20</v>
+      </c>
+    </row>
+    <row r="76" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D76">
+        <v>35.5</v>
+      </c>
+      <c r="E76">
+        <v>6.8731670460056094E-3</v>
+      </c>
+      <c r="G76">
+        <v>35.5</v>
+      </c>
+      <c r="H76">
+        <v>-1.7379174118295368E-18</v>
+      </c>
+      <c r="J76">
+        <v>35.5</v>
+      </c>
+      <c r="K76">
+        <v>0.37157163977050511</v>
+      </c>
+      <c r="M76">
+        <v>35.5</v>
+      </c>
+      <c r="N76">
+        <v>4.4672981339614626E-20</v>
+      </c>
+    </row>
+    <row r="77" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D77">
+        <v>36</v>
+      </c>
+      <c r="E77">
+        <v>5.8380191772853564E-3</v>
+      </c>
+      <c r="G77">
+        <v>36</v>
+      </c>
+      <c r="H77" s="1">
+        <v>-1.2876740794269404E-18</v>
+      </c>
+      <c r="J77">
+        <v>36</v>
+      </c>
+      <c r="K77">
+        <v>0.33381807205061337</v>
+      </c>
+      <c r="M77">
+        <v>36</v>
+      </c>
+      <c r="N77">
+        <v>4.6415084049565109E-19</v>
+      </c>
+    </row>
+    <row r="78" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D78">
+        <v>36.5</v>
+      </c>
+      <c r="E78">
+        <v>4.958950100534416E-3</v>
+      </c>
+      <c r="G78">
+        <v>36.5</v>
+      </c>
+      <c r="H78" s="1">
+        <v>-8.3743074702433961E-19</v>
+      </c>
+      <c r="J78">
+        <v>36.5</v>
+      </c>
+      <c r="K78">
+        <v>0.29988127021891936</v>
+      </c>
+      <c r="M78">
+        <v>36.5</v>
+      </c>
+      <c r="N78">
+        <v>8.8362869965168351E-19</v>
+      </c>
+    </row>
+    <row r="79" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D79">
+        <v>37</v>
+      </c>
+      <c r="E79">
+        <v>4.211509203511485E-3</v>
+      </c>
+      <c r="G79">
+        <v>37</v>
+      </c>
+      <c r="H79" s="1">
+        <v>-3.8718741462174007E-19</v>
+      </c>
+      <c r="J79">
+        <v>37</v>
+      </c>
+      <c r="K79">
+        <v>0.26954406917794976</v>
+      </c>
+      <c r="M79">
+        <v>37</v>
+      </c>
+      <c r="N79">
+        <v>1.3031065588077132E-18</v>
+      </c>
+    </row>
+    <row r="80" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D80">
+        <v>37.5</v>
+      </c>
+      <c r="E80">
+        <v>3.5767807901139282E-3</v>
+      </c>
+      <c r="G80">
+        <v>37.5</v>
+      </c>
+      <c r="H80" s="1">
+        <v>6.3055917780859481E-20</v>
+      </c>
+      <c r="J80">
+        <v>37.5</v>
+      </c>
+      <c r="K80">
+        <v>0.24208066339337925</v>
+      </c>
+      <c r="M80">
+        <v>37.5</v>
+      </c>
+      <c r="N80">
+        <v>1.3328830145761133E-18</v>
+      </c>
+    </row>
+    <row r="81" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D81">
+        <v>38</v>
+      </c>
+      <c r="E81">
+        <v>3.0378099972448698E-3</v>
+      </c>
+      <c r="G81">
+        <v>38</v>
+      </c>
+      <c r="H81" s="1">
+        <v>5.1329925018346175E-19</v>
+      </c>
+      <c r="J81">
+        <v>38</v>
+      </c>
+      <c r="K81">
+        <v>0.21752395504947969</v>
+      </c>
+      <c r="M81">
+        <v>38</v>
+      </c>
+      <c r="N81">
+        <v>1.2970933419073979E-18</v>
+      </c>
+    </row>
+    <row r="82" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D82">
+        <v>38.5</v>
+      </c>
+      <c r="E82">
+        <v>2.5801816316277015E-3</v>
+      </c>
+      <c r="G82">
+        <v>38.5</v>
+      </c>
+      <c r="H82" s="1">
+        <v>9.6354258258605961E-19</v>
+      </c>
+      <c r="J82">
+        <v>38.5</v>
+      </c>
+      <c r="K82">
+        <v>0.19543939691194287</v>
+      </c>
+      <c r="M82">
+        <v>38.5</v>
+      </c>
+      <c r="N82">
+        <v>1.2613036692386736E-18</v>
+      </c>
+    </row>
+    <row r="83" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D83">
+        <v>39</v>
+      </c>
+      <c r="E83">
+        <v>2.1916417236494475E-3</v>
+      </c>
+      <c r="G83">
+        <v>39</v>
+      </c>
+      <c r="H83" s="1">
+        <v>1.4137859149886592E-18</v>
+      </c>
+      <c r="J83">
+        <v>39</v>
+      </c>
+      <c r="K83">
+        <v>0.17558488919717716</v>
+      </c>
+      <c r="M83">
+        <v>39</v>
+      </c>
+      <c r="N83">
+        <v>1.2255139965699537E-18</v>
+      </c>
+    </row>
+    <row r="84" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D84">
+        <v>39.5</v>
+      </c>
+      <c r="E84">
+        <v>1.8615139039231355E-3</v>
+      </c>
+      <c r="G84">
+        <v>39.5</v>
+      </c>
+      <c r="H84" s="1">
+        <v>1.7868517043640008E-18</v>
+      </c>
+      <c r="J84">
+        <v>39.5</v>
+      </c>
+      <c r="K84">
+        <v>0.157795073947047</v>
+      </c>
+      <c r="M84">
+        <v>39.5</v>
+      </c>
+      <c r="N84">
+        <v>1.1897243239012338E-18</v>
+      </c>
+    </row>
+    <row r="85" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D85">
+        <v>40</v>
+      </c>
+      <c r="E85">
+        <v>1.580941114780631E-3</v>
+      </c>
+      <c r="G85">
+        <v>40</v>
+      </c>
+      <c r="H85" s="1">
+        <v>1.718755143525913E-18</v>
+      </c>
+      <c r="J85">
+        <v>40</v>
+      </c>
+      <c r="K85">
+        <v>0.14172361751209875</v>
+      </c>
+      <c r="M85">
+        <v>40</v>
+      </c>
+      <c r="N85">
+        <v>1.1539346512325141E-18</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A38:B38"/>
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:B3"/>
     <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
